--- a/設計書/01ログイン.xlsx
+++ b/設計書/01ログイン.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7F-001\Desktop\図書館システム機能設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m0119299f7\Desktop\library_yasuda\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483D18A1-62CB-4E53-B92C-0ED01DE97A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{9FA97020-0ECC-4B2A-ABD8-7F04139D748D}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C12F9A50-4EFF-4E6C-9FEF-2B5FC654D66F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="2" r:id="rId1"/>
@@ -22,8 +21,9 @@
     <sheet name="メッセージ一覧" sheetId="7" r:id="rId6"/>
     <sheet name="入出力仕様一覧" sheetId="8" r:id="rId7"/>
     <sheet name="SQL一覧" sheetId="9" r:id="rId8"/>
+    <sheet name="変更履歴" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="179">
   <si>
     <t>機能概要</t>
     <rPh sb="0" eb="4">
@@ -1269,45 +1269,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力された図書カード番号を利用者マスタで検索
-一致する値がある場合：No7
-一致する値がない場合：No8</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>次ページに遷移</t>
     <rPh sb="0" eb="1">
       <t>ジ</t>
@@ -1413,6 +1374,118 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出力使用一覧</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シヨウイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セルG8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力された図書カード番号を利用者マスタで検索
+一致する値がある場合：No7
+一致する値がない場合：No8
+上記を下記に変更
+入力された図書カード番号を利用者マスタで検索
+一致する値がある場合：No8
+一致する値がない場合：No7</t>
+    <rPh sb="54" eb="56">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力された図書カード番号を利用者マスタで検索
+一致する値がある場合：No8
+一致する値がない場合：No7</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更/追加内容</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更/追加場所</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1420,8 +1493,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1437,8 +1510,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1451,8 +1532,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1521,13 +1608,336 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1578,6 +1988,135 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1624,8 +2163,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2914280" y="7412183"/>
-          <a:ext cx="8896722" cy="5544247"/>
+          <a:off x="2914280" y="7077365"/>
+          <a:ext cx="8919813" cy="5267156"/>
           <a:chOff x="13097368" y="1361827"/>
           <a:chExt cx="9628715" cy="6277922"/>
         </a:xfrm>
@@ -1838,8 +2377,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3014603" y="883228"/>
-          <a:ext cx="8727126" cy="5702164"/>
+          <a:off x="3014603" y="848591"/>
+          <a:ext cx="8750217" cy="5425073"/>
           <a:chOff x="3014603" y="861835"/>
           <a:chExt cx="8749538" cy="5531019"/>
         </a:xfrm>
@@ -2724,7 +3263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC26A92-CA13-40B9-8B79-674D4E5625B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2732,51 +3271,51 @@
     </sheetView>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="60.75" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.125" customWidth="1"/>
-    <col min="7" max="11" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="30.08203125" customWidth="1"/>
+    <col min="7" max="11" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="8" t="s">
         <v>49</v>
       </c>
@@ -2786,7 +3325,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4" t="s">
         <v>48</v>
       </c>
@@ -2796,28 +3335,28 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="16"/>
       <c r="C11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1"/>
     </row>
   </sheetData>
@@ -2827,30 +3366,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611A3442-AB74-4234-A907-31B0299FAFC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="1">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="B7" zoomScale="55" zoomScaleNormal="55" workbookViewId="1">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
     <col min="11" max="11" width="14.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -2858,20 +3397,20 @@
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2882,7 +3421,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2905,7 +3444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K8" s="4">
         <v>1</v>
       </c>
@@ -2928,7 +3467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K9" s="4">
         <v>2</v>
       </c>
@@ -2951,7 +3490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K10" s="4">
         <v>3</v>
       </c>
@@ -2974,7 +3513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K11" s="4">
         <v>4</v>
       </c>
@@ -2997,7 +3536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K12" s="4">
         <v>5</v>
       </c>
@@ -3020,7 +3559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K13" s="4">
         <v>6</v>
       </c>
@@ -3043,7 +3582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K14" s="4">
         <v>7</v>
       </c>
@@ -3066,7 +3605,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K15" s="4">
         <v>8</v>
       </c>
@@ -3089,7 +3628,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K16" s="4">
         <v>9</v>
       </c>
@@ -3112,7 +3651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K17" s="4">
         <v>10</v>
       </c>
@@ -3135,17 +3674,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:17" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K31" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K32" s="4" t="s">
         <v>4</v>
       </c>
@@ -3168,7 +3707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K33" s="4">
         <v>1</v>
       </c>
@@ -3191,7 +3730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K34" s="4">
         <v>2</v>
       </c>
@@ -3214,7 +3753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K35" s="4">
         <v>3</v>
       </c>
@@ -3246,17 +3785,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C961E6-AFBA-40CF-9F40-B85224B796D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AD38" sqref="AD38"/>
     </sheetView>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="1"/>
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -3269,32 +3808,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA677CA7-E0A4-472E-AACA-88B5C437F42B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="1">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.58203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="23.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.58203125" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
-    <col min="10" max="10" width="30.125" customWidth="1"/>
+    <col min="10" max="10" width="30.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
@@ -3302,7 +3841,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -3323,7 +3862,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
         <v>129</v>
       </c>
@@ -3345,7 +3884,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
         <v>130</v>
       </c>
@@ -3366,7 +3905,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
         <v>131</v>
       </c>
@@ -3387,7 +3926,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11" t="s">
         <v>132</v>
       </c>
@@ -3407,7 +3946,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="s">
         <v>133</v>
       </c>
@@ -3427,7 +3966,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -3447,7 +3986,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="s">
         <v>138</v>
       </c>
@@ -3467,7 +4006,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11" t="s">
         <v>139</v>
       </c>
@@ -3487,7 +4026,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11" t="s">
         <v>140</v>
       </c>
@@ -3507,7 +4046,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11" t="s">
         <v>143</v>
       </c>
@@ -3527,7 +4066,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11" t="s">
         <v>144</v>
       </c>
@@ -3547,7 +4086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11" t="s">
         <v>141</v>
       </c>
@@ -3567,7 +4106,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11" t="s">
         <v>142</v>
       </c>
@@ -3587,7 +4126,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11" t="s">
         <v>83</v>
       </c>
@@ -3614,7 +4153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0EC8F0-9644-4BB5-9EF3-32CAFD739C28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3622,20 +4161,20 @@
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3649,7 +4188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3671,7 +4210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADA325-B524-45A1-B671-411BA58E9557}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3679,21 +4218,21 @@
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -3704,7 +4243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3715,26 +4254,26 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3744,25 +4283,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237E96D9-9059-446F-A39D-F80C3A473A7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="1">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="1" max="1" width="15.08203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="27.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="70.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="27.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="70.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -3775,7 +4316,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
         <v>18</v>
       </c>
@@ -3798,7 +4339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -3821,7 +4362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -3842,7 +4383,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -3865,7 +4406,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -3883,10 +4424,10 @@
         <v>152</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -3907,7 +4448,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -3927,12 +4468,12 @@
         <v>78</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
@@ -3942,7 +4483,7 @@
         <v>84</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>84</v>
@@ -3951,9 +4492,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
@@ -3963,16 +4504,16 @@
         <v>64</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14">
         <v>8</v>
       </c>
@@ -3981,16 +4522,16 @@
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>156</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4000,32 +4541,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42522D73-4E65-4C89-8884-6AF70FD997A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4054,7 +4595,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4087,4 +4628,326 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="26"/>
+    <col min="7" max="7" width="8.6640625" style="24"/>
+    <col min="9" max="9" width="8.6640625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C2" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="30"/>
+    </row>
+    <row r="3" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="49">
+        <v>45393</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="55"/>
+      <c r="J3" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="46"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="50"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="48"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="50"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="48"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="50"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="48"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="50"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="50"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="48"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="50"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="48"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="50"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="48"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="50"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="48"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="50"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="48"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="53"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="35"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="19"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="19"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="19"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="35"/>
+    </row>
+    <row r="17" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="E3:F12"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="H3:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J3:P12"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/設計書/01ログイン.xlsx
+++ b/設計書/01ログイン.xlsx
@@ -9,8 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" firstSheet="1" activeTab="7"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="2" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="178">
   <si>
     <t>機能概要</t>
     <rPh sb="0" eb="4">
@@ -928,24 +927,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインボタンの活性化</t>
-    <rPh sb="8" eb="11">
-      <t>カッセイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインボタンを活性化する</t>
-    <rPh sb="8" eb="11">
-      <t>カッセイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑨</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力値が登録されているかチェック</t>
     <rPh sb="0" eb="3">
       <t>ニュウリョクチ</t>
@@ -1004,9 +985,6 @@
     <t>初期画面⑦の入力値にエラーがあった場合</t>
   </si>
   <si>
-    <t>初期画面⑦の入力値にエラーが無かった場合</t>
-  </si>
-  <si>
     <t>初期画面⑨を押下</t>
   </si>
   <si>
@@ -1081,10 +1059,6 @@
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1486,6 +1460,49 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図書カード番号を入力してください。</t>
+    <rPh sb="0" eb="2">
+      <t>トショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ一覧</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6行目</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図書カード番号未入力時のエラーメッセージ追加</t>
+    <rPh sb="0" eb="2">
+      <t>トショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ミニュウリョクジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2022,6 +2039,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2031,15 +2102,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2061,18 +2123,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2084,39 +2134,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3269,7 +3286,6 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3348,12 +3364,12 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
@@ -3369,11 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
-    <sheetView topLeftCell="B7" zoomScale="55" zoomScaleNormal="55" workbookViewId="1">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="B28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3788,10 +3801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AD38" sqref="AD38"/>
     </sheetView>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -3809,14 +3821,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
-    </sheetView>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="1">
-      <selection activeCell="D11" sqref="D11"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3864,7 +3873,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>81</v>
@@ -3886,10 +3895,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>66</v>
@@ -3907,10 +3916,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>69</v>
@@ -3928,10 +3937,10 @@
     </row>
     <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>71</v>
@@ -3948,10 +3957,10 @@
     </row>
     <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>70</v>
@@ -3971,13 +3980,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>109</v>
@@ -3988,10 +3997,10 @@
     </row>
     <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>111</v>
@@ -4006,58 +4015,58 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>109</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>47</v>
@@ -4068,81 +4077,61 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4157,9 +4146,8 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4211,12 +4199,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4248,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
@@ -4259,10 +4246,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4270,10 +4257,21 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4287,10 +4285,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="1">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4344,13 +4339,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>106</v>
@@ -4371,13 +4366,13 @@
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>47</v>
@@ -4388,13 +4383,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>85</v>
@@ -4421,10 +4416,10 @@
         <v>36</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4436,7 +4431,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>36</v>
@@ -4445,7 +4440,7 @@
         <v>85</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
@@ -4453,13 +4448,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>85</v>
@@ -4468,12 +4463,12 @@
         <v>78</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
@@ -4483,7 +4478,7 @@
         <v>84</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>84</v>
@@ -4494,7 +4489,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
@@ -4504,13 +4499,13 @@
         <v>64</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4522,16 +4517,16 @@
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4544,10 +4539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4634,9 +4628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4650,288 +4643,286 @@
     <row r="1" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="2" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C2" s="18" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D2" s="27"/>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="48"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="28" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48"/>
+    </row>
+    <row r="3" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="29">
+        <v>45393</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="30"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="59"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="30"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="59"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="30"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="59"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="30"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="59"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="30"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="59"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="30"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="59"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="30"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="59"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="30"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="59"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="28">
+        <v>45393</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="30"/>
-    </row>
-    <row r="3" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="49">
-        <v>45393</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="50"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="48"/>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="50"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="48"/>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="50"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="48"/>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="50"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="48"/>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="50"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="48"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="50"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="48"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="50"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="48"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="50"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="48"/>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="50"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="48"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="53"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="35"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="19"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="35"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="19"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="35"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="19"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="44"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="35"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="37"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="E3:F12"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="H3:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J2:P2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="J13:P13"/>
@@ -4946,6 +4937,16 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="J3:P12"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="E3:F12"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="H3:I12"/>
+    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/01ログイン.xlsx
+++ b/設計書/01ログイン.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="2" r:id="rId1"/>
@@ -2042,6 +2042,60 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2080,60 +2134,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3283,9 +3283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3385,9 +3383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3801,9 +3797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD38" sqref="AD38"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -3824,8 +3818,8 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4145,9 +4139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4201,9 +4193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4284,9 +4274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4539,9 +4527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4628,9 +4614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4646,283 +4630,291 @@
         <v>166</v>
       </c>
       <c r="D2" s="27"/>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="48"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="46" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="30"/>
     </row>
     <row r="3" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="29">
+      <c r="C3" s="47">
         <v>45393</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="31" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="36" t="s">
+      <c r="F3" s="49"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="56" t="s">
+      <c r="I3" s="55"/>
+      <c r="J3" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="57"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="30"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="45"/>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="30"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="59"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="30"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="59"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="45"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="30"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="59"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="45"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="30"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="59"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="45"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="30"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="59"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="45"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="30"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="59"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="45"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="30"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="59"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="45"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="30"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="59"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="28">
         <v>45393</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="42" t="s">
+      <c r="I13" s="41"/>
+      <c r="J13" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="50"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="19"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="50"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="35"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="19"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="50"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="35"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="19"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="50"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="35"/>
     </row>
     <row r="17" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="52"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="E3:F12"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="H3:I12"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="J13:P13"/>
@@ -4939,14 +4931,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="E3:F12"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="H3:I12"/>
-    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
